--- a/data/handcrafted/raw_status.xlsx
+++ b/data/handcrafted/raw_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="633">
   <si>
     <t xml:space="preserve">tconst</t>
   </si>
@@ -334,6 +334,9 @@
     <t xml:space="preserve">tt0093058</t>
   </si>
   <si>
+    <t xml:space="preserve">tt0094142</t>
+  </si>
+  <si>
     <t xml:space="preserve">tt0094721</t>
   </si>
   <si>
@@ -880,6 +883,9 @@
     <t xml:space="preserve">tt0790736</t>
   </si>
   <si>
+    <t xml:space="preserve">tt0795368</t>
+  </si>
+  <si>
     <t xml:space="preserve">tt0800369</t>
   </si>
   <si>
@@ -892,6 +898,9 @@
     <t xml:space="preserve">tt0829482</t>
   </si>
   <si>
+    <t xml:space="preserve">tt0884328</t>
+  </si>
+  <si>
     <t xml:space="preserve">tt0903624</t>
   </si>
   <si>
@@ -919,6 +928,9 @@
     <t xml:space="preserve">tt10095582</t>
   </si>
   <si>
+    <t xml:space="preserve">tt1016150</t>
+  </si>
+  <si>
     <t xml:space="preserve">tt1017460</t>
   </si>
   <si>
@@ -1201,6 +1213,9 @@
     <t xml:space="preserve">tt1490017</t>
   </si>
   <si>
+    <t xml:space="preserve">tt1499658</t>
+  </si>
+  <si>
     <t xml:space="preserve">tt1504320</t>
   </si>
   <si>
@@ -1288,6 +1303,9 @@
     <t xml:space="preserve">tt1912398</t>
   </si>
   <si>
+    <t xml:space="preserve">tt1921064</t>
+  </si>
+  <si>
     <t xml:space="preserve">tt1950186</t>
   </si>
   <si>
@@ -1396,6 +1414,9 @@
     <t xml:space="preserve">tt2802144</t>
   </si>
   <si>
+    <t xml:space="preserve">tt2911666</t>
+  </si>
+  <si>
     <t xml:space="preserve">tt2935510</t>
   </si>
   <si>
@@ -1519,6 +1540,9 @@
     <t xml:space="preserve">tt4364194</t>
   </si>
   <si>
+    <t xml:space="preserve">tt4425200</t>
+  </si>
+  <si>
     <t xml:space="preserve">tt4463120</t>
   </si>
   <si>
@@ -1652,6 +1676,9 @@
   </si>
   <si>
     <t xml:space="preserve">tt6135348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tt6146586</t>
   </si>
   <si>
     <t xml:space="preserve">tt6247936</t>
@@ -1898,9 +1925,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1982,7 +2010,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1992,6 +2020,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2014,8 +2046,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A595" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L597" activeCellId="0" sqref="L597"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A617" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H628" activeCellId="0" sqref="H628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2056,13 +2088,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44989</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,7 +2332,7 @@
       <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="3" t="n">
         <v>44974</v>
       </c>
       <c r="F28" s="0" t="n">
@@ -2497,13 +2535,19 @@
         <v>56</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>44986</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,9 +3035,6 @@
       <c r="B99" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F99" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -3002,6 +3043,9 @@
       <c r="B100" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F100" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
@@ -3024,13 +3068,7 @@
         <v>108</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,10 +3076,13 @@
         <v>109</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,6 +3092,9 @@
       <c r="B105" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F105" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
@@ -3083,9 +3127,6 @@
       <c r="B109" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F109" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
@@ -3095,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,13 +3146,16 @@
       <c r="B111" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F111" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>117</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,7 +3163,7 @@
         <v>118</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,19 +3197,19 @@
       <c r="B117" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C117" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>123</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>44936</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,7 +3217,7 @@
         <v>124</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,13 +3225,7 @@
         <v>125</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,10 +3233,13 @@
         <v>126</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,6 +3249,9 @@
       <c r="B122" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F122" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
@@ -3224,9 +3268,6 @@
       <c r="B124" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F124" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
@@ -3246,6 +3287,9 @@
       <c r="B126" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F126" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
@@ -3284,7 +3328,7 @@
         <v>136</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,7 +3336,7 @@
         <v>137</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,9 +3346,6 @@
       <c r="B133" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F133" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
@@ -3313,6 +3354,9 @@
       <c r="B134" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F134" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
@@ -3327,7 +3371,7 @@
         <v>141</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3335,7 +3379,7 @@
         <v>142</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,15 +3403,6 @@
         <v>145</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3384,16 +3419,22 @@
       <c r="E141" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G141" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>147</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F142" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,6 +3444,9 @@
       <c r="B143" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F143" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
@@ -3411,25 +3455,16 @@
       <c r="B144" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F144" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>150</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3437,6 +3472,15 @@
         <v>151</v>
       </c>
       <c r="B146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3455,9 +3499,6 @@
       <c r="B148" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F148" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
@@ -3467,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,6 +3518,9 @@
       <c r="B150" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F150" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
@@ -3491,15 +3535,6 @@
         <v>157</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,13 +3545,22 @@
       <c r="B153" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>159</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,7 +3584,7 @@
         <v>162</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3548,7 +3592,7 @@
         <v>163</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,22 +3650,16 @@
       <c r="B165" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F165" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>171</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,10 +3667,13 @@
         <v>172</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F167" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3642,6 +3683,9 @@
       <c r="B168" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F168" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
@@ -3650,9 +3694,6 @@
       <c r="B169" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F169" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
@@ -3661,6 +3702,9 @@
       <c r="B170" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F170" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
@@ -3691,7 +3735,7 @@
         <v>179</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,7 +3743,7 @@
         <v>180</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,7 +3751,7 @@
         <v>181</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,7 +3759,7 @@
         <v>182</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,13 +3767,7 @@
         <v>183</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,13 +3777,19 @@
       <c r="B179" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>185</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,19 +3823,16 @@
       <c r="B184" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F184" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>190</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,11 +3842,8 @@
       <c r="B186" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D186" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" s="0" t="n">
-        <v>0</v>
+      <c r="G186" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,10 +3851,13 @@
         <v>192</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F187" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,13 +3865,10 @@
         <v>193</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,10 +3876,13 @@
         <v>194</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F189" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,6 +3903,9 @@
       <c r="B191" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F191" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
@@ -3886,16 +3930,16 @@
       <c r="B194" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F194" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>200</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,7 +3955,7 @@
         <v>202</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,13 +3963,7 @@
         <v>203</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,10 +3971,13 @@
         <v>204</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F199" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,16 +3985,10 @@
         <v>205</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E200" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G200" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" s="0" t="n">
         <v>1</v>
@@ -3978,6 +4013,15 @@
         <v>207</v>
       </c>
       <c r="B202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3994,7 +4038,7 @@
         <v>209</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,19 +4048,19 @@
       <c r="B205" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D205" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>211</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4058,9 +4102,6 @@
       <c r="B211" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F211" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
@@ -4069,6 +4110,9 @@
       <c r="B212" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F212" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
@@ -4085,9 +4129,6 @@
       <c r="B214" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F214" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
@@ -4096,6 +4137,9 @@
       <c r="B215" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F215" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
@@ -4110,13 +4154,7 @@
         <v>222</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D217" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E217" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,7 +4162,13 @@
         <v>223</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,9 +4178,6 @@
       <c r="B219" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F219" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
@@ -4145,6 +4186,9 @@
       <c r="B220" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F220" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
@@ -4161,9 +4205,6 @@
       <c r="B222" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F222" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
@@ -4172,6 +4213,9 @@
       <c r="B223" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F223" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
@@ -4194,7 +4238,7 @@
         <v>231</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4246,7 @@
         <v>232</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4212,9 +4256,6 @@
       <c r="B228" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F228" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
@@ -4224,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,13 +4273,10 @@
         <v>235</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D230" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E230" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,10 +4284,13 @@
         <v>236</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F231" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4260,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,6 +4311,9 @@
       <c r="B233" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F233" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
@@ -4278,9 +4322,6 @@
       <c r="B234" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F234" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
@@ -4289,6 +4330,9 @@
       <c r="B235" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F235" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
@@ -4303,13 +4347,7 @@
         <v>242</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D237" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E237" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,7 +4355,13 @@
         <v>243</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,9 +4371,6 @@
       <c r="B239" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F239" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
@@ -4338,13 +4379,16 @@
       <c r="B240" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F240" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>246</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,12 +4398,6 @@
       <c r="B242" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D242" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E242" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
@@ -4368,16 +4406,19 @@
       <c r="B243" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D243" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>249</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F244" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,6 +4428,9 @@
       <c r="B245" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F245" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
@@ -4443,25 +4487,16 @@
       <c r="B252" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F252" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>258</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D253" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E253" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G253" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F253" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,6 +4504,15 @@
         <v>259</v>
       </c>
       <c r="B254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4495,9 +4539,6 @@
       <c r="B257" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F257" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
@@ -4517,6 +4558,9 @@
       <c r="B259" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F259" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
@@ -4533,12 +4577,6 @@
       <c r="B261" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C261" s="2" t="n">
-        <v>44932</v>
-      </c>
-      <c r="F261" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
@@ -4547,6 +4585,9 @@
       <c r="B262" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C262" s="3" t="n">
+        <v>44932</v>
+      </c>
       <c r="F262" s="0" t="n">
         <v>2</v>
       </c>
@@ -4556,7 +4597,10 @@
         <v>268</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F263" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,7 +4608,7 @@
         <v>269</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,9 +4618,6 @@
       <c r="B265" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F265" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
@@ -4585,6 +4626,9 @@
       <c r="B266" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F266" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
@@ -4593,9 +4637,6 @@
       <c r="B267" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F267" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
@@ -4604,6 +4645,9 @@
       <c r="B268" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F268" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
@@ -4620,16 +4664,16 @@
       <c r="B270" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F270" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>276</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F271" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,7 +4681,7 @@
         <v>277</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,7 +4689,7 @@
         <v>278</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,10 +4697,7 @@
         <v>279</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F274" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4667,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,6 +4718,9 @@
       <c r="B276" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F276" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
@@ -4699,13 +4743,7 @@
         <v>284</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D279" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E279" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,10 +4751,13 @@
         <v>285</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F280" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4737,6 +4778,9 @@
       <c r="B282" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C282" s="2" t="n">
+        <v>44997</v>
+      </c>
       <c r="F282" s="0" t="n">
         <v>2</v>
       </c>
@@ -4748,6 +4792,9 @@
       <c r="B283" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F283" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
@@ -4756,6 +4803,9 @@
       <c r="B284" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F284" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
@@ -4796,28 +4846,13 @@
       <c r="B289" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D289" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E289" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F289" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>295</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D290" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E290" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,13 +4868,16 @@
         <v>297</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D292" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F292" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,10 +4885,13 @@
         <v>298</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F293" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D293" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E293" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,13 +4921,10 @@
         <v>301</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D296" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E296" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F296" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,13 +4932,13 @@
         <v>302</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D297" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E297" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C297" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="F297" s="0" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,13 +4946,7 @@
         <v>303</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D298" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E298" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,10 +4954,13 @@
         <v>304</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F299" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,13 +4968,13 @@
         <v>305</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F300" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E300" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4961,13 +4996,13 @@
         <v>307</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C302" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="F302" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D302" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,7 +5010,10 @@
         <v>308</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F303" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,8 +5023,11 @@
       <c r="B304" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D304" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F304" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,8 +5051,11 @@
       <c r="B306" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C306" s="3" t="n">
+        <v>44936</v>
+      </c>
       <c r="F306" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,6 +5065,12 @@
       <c r="B307" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C307" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="F307" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
@@ -5029,11 +5079,8 @@
       <c r="B308" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D308" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="F308" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5041,7 +5088,13 @@
         <v>314</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D309" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E309" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,13 +5102,10 @@
         <v>315</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D310" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E310" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F310" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,13 +5113,7 @@
         <v>316</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D311" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E311" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5079,8 +5123,11 @@
       <c r="B312" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D312" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F312" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5090,25 +5137,19 @@
       <c r="B313" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F313" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>319</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D314" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E314" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F314" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,7 +5171,10 @@
         <v>321</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F316" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5140,6 +5184,9 @@
       <c r="B317" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F317" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
@@ -5148,8 +5195,14 @@
       <c r="B318" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F318" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,13 +5213,10 @@
         <v>0</v>
       </c>
       <c r="D319" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E319" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="G319" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,12 +5226,6 @@
       <c r="B320" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D320" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E320" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
@@ -5190,9 +5234,6 @@
       <c r="B321" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F321" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
@@ -5201,11 +5242,8 @@
       <c r="B322" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C322" s="2" t="n">
-        <v>44936</v>
-      </c>
       <c r="F322" s="0" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,9 +5254,12 @@
         <v>0</v>
       </c>
       <c r="D323" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G323" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,10 +5268,13 @@
         <v>329</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F324" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D324" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="F325" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,16 +5295,25 @@
       <c r="B326" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C326" s="3" t="n">
+        <v>44936</v>
+      </c>
+      <c r="F326" s="0" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>332</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F327" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5321,10 @@
         <v>333</v>
       </c>
       <c r="B328" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F328" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,14 +5334,8 @@
       <c r="B329" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D329" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E329" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="F329" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5295,12 +5345,6 @@
       <c r="B330" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D330" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F330" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
@@ -5318,7 +5362,7 @@
         <v>337</v>
       </c>
       <c r="B332" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,6 +5372,12 @@
       <c r="B333" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D333" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F333" s="0" t="n">
         <v>3</v>
       </c>
@@ -5339,8 +5389,11 @@
       <c r="B334" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D334" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F334" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5351,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="F335" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,15 +5414,6 @@
       <c r="B336" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D336" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E336" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F336" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
@@ -5378,19 +5422,19 @@
       <c r="B337" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F337" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
         <v>343</v>
       </c>
       <c r="B338" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D338" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E338" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F338" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,7 +5442,10 @@
         <v>344</v>
       </c>
       <c r="B339" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F339" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,19 +5455,22 @@
       <c r="B340" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F340" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>346</v>
       </c>
       <c r="B341" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D341" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E341" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,7 +5478,13 @@
         <v>347</v>
       </c>
       <c r="B342" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D342" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5438,12 +5494,6 @@
       <c r="B343" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D343" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E343" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
@@ -5458,7 +5508,13 @@
         <v>350</v>
       </c>
       <c r="B345" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D345" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E345" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5498,9 +5554,6 @@
       <c r="B349" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F349" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
@@ -5509,19 +5562,19 @@
       <c r="B350" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F350" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
         <v>356</v>
       </c>
       <c r="B351" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F351" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E351" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,13 +5582,7 @@
         <v>357</v>
       </c>
       <c r="B352" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D352" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E352" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,13 +5590,10 @@
         <v>358</v>
       </c>
       <c r="B353" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D353" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E353" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F353" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,13 +5601,10 @@
         <v>359</v>
       </c>
       <c r="B354" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D354" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E354" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F354" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,13 +5612,10 @@
         <v>360</v>
       </c>
       <c r="B355" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D355" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E355" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F355" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,13 +5623,13 @@
         <v>361</v>
       </c>
       <c r="B356" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D356" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E356" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F356" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,7 +5637,13 @@
         <v>362</v>
       </c>
       <c r="B357" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D357" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E357" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,10 +5651,13 @@
         <v>363</v>
       </c>
       <c r="B358" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F358" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D358" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E358" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5618,7 +5665,13 @@
         <v>364</v>
       </c>
       <c r="B359" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D359" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E359" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5626,13 +5679,13 @@
         <v>365</v>
       </c>
       <c r="B360" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D360" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E360" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F360" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,13 +5693,7 @@
         <v>366</v>
       </c>
       <c r="B361" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D361" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E361" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,6 +5703,9 @@
       <c r="B362" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F362" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
@@ -5664,15 +5714,6 @@
       <c r="B363" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D363" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E363" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F363" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
@@ -5682,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="D364" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E364" s="0" t="n">
         <v>0</v>
@@ -5693,13 +5734,13 @@
         <v>370</v>
       </c>
       <c r="B365" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D365" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F365" s="0" t="n">
-        <v>4</v>
+      <c r="E365" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5709,12 +5750,6 @@
       <c r="B366" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D366" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F366" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
@@ -5723,8 +5758,14 @@
       <c r="B367" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D367" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E367" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F367" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5735,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E368" s="0" t="n">
         <v>0</v>
@@ -5748,8 +5789,11 @@
       <c r="B369" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D369" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F369" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,6 +5803,12 @@
       <c r="B370" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D370" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F370" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
@@ -5776,10 +5826,13 @@
         <v>377</v>
       </c>
       <c r="B372" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F372" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D372" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E372" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5789,6 +5842,9 @@
       <c r="B373" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F373" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
@@ -5816,21 +5872,15 @@
       <c r="B376" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F376" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
         <v>382</v>
       </c>
       <c r="B377" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D377" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E377" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G377" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5841,22 +5891,16 @@
       <c r="B378" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F378" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
         <v>384</v>
       </c>
       <c r="B379" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D379" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E379" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F379" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,7 +5908,7 @@
         <v>385</v>
       </c>
       <c r="B380" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5874,8 +5918,20 @@
       <c r="B381" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C381" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D381" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E381" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F381" s="0" t="n">
-        <v>2</v>
+        <v>2.5</v>
+      </c>
+      <c r="G381" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="F382" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,10 +5950,13 @@
         <v>388</v>
       </c>
       <c r="B383" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F383" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D383" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E383" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5907,12 +5966,6 @@
       <c r="B384" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D384" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E384" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
@@ -5930,13 +5983,10 @@
         <v>391</v>
       </c>
       <c r="B386" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D386" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E386" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F386" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5947,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="F387" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,7 +6005,13 @@
         <v>393</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D388" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E388" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,7 +6019,10 @@
         <v>394</v>
       </c>
       <c r="B389" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F389" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="D390" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E390" s="0" t="n">
         <v>0</v>
@@ -5985,13 +6044,10 @@
         <v>396</v>
       </c>
       <c r="B391" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D391" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E391" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F391" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,8 +6057,11 @@
       <c r="B392" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C392" s="2" t="n">
+        <v>44997</v>
+      </c>
       <c r="F392" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6010,15 +6069,6 @@
         <v>398</v>
       </c>
       <c r="B393" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D393" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E393" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G393" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6027,10 +6077,7 @@
         <v>399</v>
       </c>
       <c r="B394" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F394" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,6 +6087,12 @@
       <c r="B395" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
@@ -6062,6 +6115,9 @@
       <c r="B397" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F397" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
@@ -6076,6 +6132,9 @@
       <c r="E398" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G398" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
@@ -6093,10 +6152,7 @@
         <v>405</v>
       </c>
       <c r="B400" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F400" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,7 +6160,13 @@
         <v>406</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E401" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,13 +6174,7 @@
         <v>407</v>
       </c>
       <c r="B402" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D402" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E402" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6132,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="E403" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,6 +6198,9 @@
       <c r="B404" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F404" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
@@ -6150,14 +6209,8 @@
       <c r="B405" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D405" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E405" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="F405" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6167,22 +6220,19 @@
       <c r="B406" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D406" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F406" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
         <v>412</v>
       </c>
       <c r="B407" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F407" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D407" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E407" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6196,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="E408" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,6 +6264,12 @@
       <c r="B410" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D410" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E410" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F410" s="0" t="n">
         <v>2</v>
       </c>
@@ -6225,6 +6281,9 @@
       <c r="B411" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D411" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F411" s="0" t="n">
         <v>2</v>
       </c>
@@ -6237,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="F412" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6245,13 +6304,13 @@
         <v>418</v>
       </c>
       <c r="B413" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D413" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F413" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E413" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="F415" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="F416" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6289,7 +6348,10 @@
         <v>422</v>
       </c>
       <c r="B417" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F417" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,8 +6361,11 @@
       <c r="B418" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D418" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F418" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6308,13 +6373,7 @@
         <v>424</v>
       </c>
       <c r="B419" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D419" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E419" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6324,6 +6383,9 @@
       <c r="B420" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F420" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
@@ -6333,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="F421" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6344,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="C422" s="2" t="n">
-        <v>44931</v>
+        <v>44996</v>
       </c>
       <c r="F422" s="0" t="n">
         <v>2.5</v>
@@ -6355,10 +6417,7 @@
         <v>428</v>
       </c>
       <c r="B423" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F423" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6366,13 +6425,10 @@
         <v>429</v>
       </c>
       <c r="B424" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D424" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E424" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F424" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6380,7 +6436,13 @@
         <v>430</v>
       </c>
       <c r="B425" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E425" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,22 +6452,16 @@
       <c r="B426" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F426" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
         <v>432</v>
       </c>
       <c r="B427" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D427" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E427" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F427" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6415,8 +6471,11 @@
       <c r="B428" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C428" s="3" t="n">
+        <v>44931</v>
+      </c>
       <c r="F428" s="0" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="F429" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6449,12 +6508,6 @@
         <v>436</v>
       </c>
       <c r="B431" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D431" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E431" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6465,14 +6518,8 @@
       <c r="B432" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D432" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E432" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="F432" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,7 +6527,13 @@
         <v>438</v>
       </c>
       <c r="B433" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D433" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E433" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6488,13 +6541,10 @@
         <v>439</v>
       </c>
       <c r="B434" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D434" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E434" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F434" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="F435" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6527,6 +6577,12 @@
         <v>442</v>
       </c>
       <c r="B437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E437" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6537,17 +6593,14 @@
       <c r="B438" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C438" s="2" t="n">
-        <v>44968</v>
-      </c>
       <c r="D438" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E438" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F438" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,13 +6608,7 @@
         <v>444</v>
       </c>
       <c r="B439" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D439" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E439" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6586,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="F441" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6594,10 +6641,13 @@
         <v>447</v>
       </c>
       <c r="B442" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F442" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E442" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6605,13 +6655,7 @@
         <v>448</v>
       </c>
       <c r="B443" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D443" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E443" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6619,13 +6663,19 @@
         <v>449</v>
       </c>
       <c r="B444" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C444" s="3" t="n">
+        <v>44968</v>
       </c>
       <c r="D444" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E444" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F444" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,6 +6685,12 @@
       <c r="B445" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D445" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E445" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
@@ -6655,13 +6711,10 @@
         <v>452</v>
       </c>
       <c r="B447" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D447" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E447" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F447" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6680,7 +6733,13 @@
         <v>454</v>
       </c>
       <c r="B449" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E449" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6688,10 +6747,13 @@
         <v>455</v>
       </c>
       <c r="B450" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F450" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D450" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E450" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,22 +6763,19 @@
       <c r="B451" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D451" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E451" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
         <v>457</v>
       </c>
       <c r="B452" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F452" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D452" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E452" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6724,10 +6783,13 @@
         <v>458</v>
       </c>
       <c r="B453" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F453" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D453" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E453" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6738,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="F454" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6746,13 +6808,7 @@
         <v>460</v>
       </c>
       <c r="B455" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D455" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E455" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6763,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="F456" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,10 +6827,13 @@
         <v>462</v>
       </c>
       <c r="B457" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F457" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D457" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6782,13 +6841,10 @@
         <v>463</v>
       </c>
       <c r="B458" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D458" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E458" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F458" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6796,13 +6852,13 @@
         <v>464</v>
       </c>
       <c r="B459" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D459" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E459" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C459" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="F459" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6810,7 +6866,10 @@
         <v>465</v>
       </c>
       <c r="B460" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F460" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="F461" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6832,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="D462" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E462" s="0" t="n">
         <v>0</v>
@@ -6846,7 +6905,7 @@
         <v>1</v>
       </c>
       <c r="F463" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6854,13 +6913,10 @@
         <v>469</v>
       </c>
       <c r="B464" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D464" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E464" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F464" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6896,7 +6952,7 @@
         <v>472</v>
       </c>
       <c r="B467" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="F468" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6918,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="D469" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E469" s="0" t="n">
         <v>0</v>
@@ -6932,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="F470" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6946,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E471" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,10 +7010,13 @@
         <v>477</v>
       </c>
       <c r="B472" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F472" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E472" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,13 +7038,7 @@
         <v>479</v>
       </c>
       <c r="B474" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D474" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E474" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6993,13 +7046,10 @@
         <v>480</v>
       </c>
       <c r="B475" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D475" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E475" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F475" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7007,16 +7057,13 @@
         <v>481</v>
       </c>
       <c r="B476" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D476" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E476" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F476" s="0" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7024,13 +7071,10 @@
         <v>482</v>
       </c>
       <c r="B477" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D477" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E477" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F477" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7038,16 +7082,13 @@
         <v>483</v>
       </c>
       <c r="B478" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D478" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E478" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="F478" s="0" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,13 +7096,10 @@
         <v>484</v>
       </c>
       <c r="B479" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D479" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E479" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F479" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7069,16 +7107,13 @@
         <v>485</v>
       </c>
       <c r="B480" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D480" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E480" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="F480" s="0" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7089,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="D481" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E481" s="0" t="n">
         <v>0</v>
@@ -7103,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="D482" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E482" s="0" t="n">
         <v>0</v>
@@ -7114,13 +7149,16 @@
         <v>488</v>
       </c>
       <c r="B483" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D483" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E483" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F483" s="0" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7128,10 +7166,13 @@
         <v>489</v>
       </c>
       <c r="B484" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F484" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E484" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,8 +7182,14 @@
       <c r="B485" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E485" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F485" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7150,10 +7197,13 @@
         <v>491</v>
       </c>
       <c r="B486" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F486" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E486" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7161,7 +7211,16 @@
         <v>492</v>
       </c>
       <c r="B487" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F487" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7172,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="D488" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E488" s="0" t="n">
         <v>0</v>
@@ -7183,10 +7242,13 @@
         <v>494</v>
       </c>
       <c r="B489" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F489" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D489" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E489" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7194,6 +7256,12 @@
         <v>495</v>
       </c>
       <c r="B490" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D490" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E490" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7204,19 +7272,19 @@
       <c r="B491" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F491" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
         <v>497</v>
       </c>
       <c r="B492" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D492" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E492" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F492" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7224,13 +7292,10 @@
         <v>498</v>
       </c>
       <c r="B493" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D493" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E493" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F493" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7238,10 +7303,7 @@
         <v>499</v>
       </c>
       <c r="B494" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F494" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7249,10 +7311,13 @@
         <v>500</v>
       </c>
       <c r="B495" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F495" s="0" t="n">
-        <v>3.5</v>
+        <v>0</v>
+      </c>
+      <c r="D495" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E495" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7260,7 +7325,10 @@
         <v>501</v>
       </c>
       <c r="B496" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F496" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,9 +7338,6 @@
       <c r="B497" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F497" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
@@ -7281,19 +7346,19 @@
       <c r="B498" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F498" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
         <v>504</v>
       </c>
       <c r="B499" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F499" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D499" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E499" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="D500" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E500" s="0" t="n">
         <v>0</v>
@@ -7317,8 +7382,11 @@
       <c r="B501" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C501" s="2" t="n">
+        <v>45017</v>
+      </c>
       <c r="F501" s="0" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7326,16 +7394,10 @@
         <v>507</v>
       </c>
       <c r="B502" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D502" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E502" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G502" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F502" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,13 +7405,10 @@
         <v>508</v>
       </c>
       <c r="B503" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D503" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E503" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F503" s="0" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7367,6 +7426,9 @@
       <c r="B505" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F505" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
@@ -7384,13 +7446,10 @@
         <v>512</v>
       </c>
       <c r="B507" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D507" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E507" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F507" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,13 +7471,10 @@
         <v>514</v>
       </c>
       <c r="B509" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D509" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E509" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F509" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,6 +7490,9 @@
       <c r="E510" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G510" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
@@ -7456,12 +7515,6 @@
       <c r="B512" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D512" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E512" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
@@ -7470,9 +7523,6 @@
       <c r="B513" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F513" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
@@ -7482,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="F514" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7504,7 +7554,13 @@
         <v>521</v>
       </c>
       <c r="B516" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E516" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7512,10 +7568,13 @@
         <v>522</v>
       </c>
       <c r="B517" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F517" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E517" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7523,10 +7582,13 @@
         <v>523</v>
       </c>
       <c r="B518" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F518" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E518" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7534,10 +7596,13 @@
         <v>524</v>
       </c>
       <c r="B519" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F519" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E519" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7548,13 +7613,10 @@
         <v>0</v>
       </c>
       <c r="D520" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E520" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="G520" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7562,13 +7624,10 @@
         <v>526</v>
       </c>
       <c r="B521" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D521" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E521" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F521" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7590,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="D523" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E523" s="0" t="n">
         <v>0</v>
@@ -7601,13 +7660,7 @@
         <v>529</v>
       </c>
       <c r="B524" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D524" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E524" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,13 +7668,10 @@
         <v>530</v>
       </c>
       <c r="B525" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D525" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E525" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F525" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7629,13 +7679,10 @@
         <v>531</v>
       </c>
       <c r="B526" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D526" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E526" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F526" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7643,13 +7690,10 @@
         <v>532</v>
       </c>
       <c r="B527" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D527" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E527" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F527" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7657,16 +7701,16 @@
         <v>533</v>
       </c>
       <c r="B528" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D528" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E528" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F528" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G528" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7674,7 +7718,13 @@
         <v>534</v>
       </c>
       <c r="B529" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D529" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E529" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7685,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="F530" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7710,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="D532" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E532" s="0" t="n">
         <v>0</v>
@@ -7721,16 +7771,13 @@
         <v>538</v>
       </c>
       <c r="B533" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D533" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E533" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="F533" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,10 +7799,13 @@
         <v>540</v>
       </c>
       <c r="B535" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F535" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E535" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7763,13 +7813,16 @@
         <v>541</v>
       </c>
       <c r="B536" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D536" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E536" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F536" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,22 +7832,16 @@
       <c r="B537" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F537" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
         <v>543</v>
       </c>
       <c r="B538" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D538" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E538" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F538" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7816,16 +7863,13 @@
         <v>545</v>
       </c>
       <c r="B540" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D540" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E540" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="F540" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7833,12 +7877,15 @@
         <v>546</v>
       </c>
       <c r="B541" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D541" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F541" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7863,9 +7910,6 @@
       <c r="B543" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D543" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="F543" s="0" t="n">
         <v>2</v>
       </c>
@@ -7875,10 +7919,13 @@
         <v>549</v>
       </c>
       <c r="B544" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F544" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E544" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7886,13 +7933,10 @@
         <v>550</v>
       </c>
       <c r="B545" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D545" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E545" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F545" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7916,6 +7960,9 @@
       <c r="B547" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C547" s="2" t="n">
+        <v>45033</v>
+      </c>
       <c r="F547" s="0" t="n">
         <v>3</v>
       </c>
@@ -7925,10 +7972,13 @@
         <v>553</v>
       </c>
       <c r="B548" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F548" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E548" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7936,13 +7986,16 @@
         <v>554</v>
       </c>
       <c r="B549" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D549" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E549" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F549" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7956,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="E550" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,9 +8025,6 @@
       <c r="E551" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G551" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
@@ -7984,13 +8034,10 @@
         <v>1</v>
       </c>
       <c r="D552" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E552" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F552" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8000,15 +8047,6 @@
       <c r="B553" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C553" s="2" t="n">
-        <v>44951</v>
-      </c>
-      <c r="D553" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E553" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="F553" s="0" t="n">
         <v>2</v>
       </c>
@@ -8018,10 +8056,13 @@
         <v>559</v>
       </c>
       <c r="B554" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F554" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E554" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8043,7 +8084,10 @@
         <v>561</v>
       </c>
       <c r="B556" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F556" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8076,16 +8120,13 @@
         <v>564</v>
       </c>
       <c r="B559" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D559" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E559" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="F559" s="0" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8096,10 +8137,13 @@
         <v>0</v>
       </c>
       <c r="D560" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E560" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="G560" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8109,17 +8153,14 @@
       <c r="B561" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C561" s="2" t="n">
-        <v>44968</v>
-      </c>
       <c r="D561" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E561" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F561" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8129,8 +8170,17 @@
       <c r="B562" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C562" s="3" t="n">
+        <v>44951</v>
+      </c>
+      <c r="D562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E562" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F562" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8138,13 +8188,10 @@
         <v>568</v>
       </c>
       <c r="B563" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D563" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E563" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F563" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8166,13 +8213,7 @@
         <v>570</v>
       </c>
       <c r="B565" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D565" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F565" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8183,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="F566" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,10 +8232,13 @@
         <v>572</v>
       </c>
       <c r="B567" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F567" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D567" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E567" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8202,13 +8246,16 @@
         <v>573</v>
       </c>
       <c r="B568" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D568" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E568" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F568" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8219,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="D569" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E569" s="0" t="n">
         <v>0</v>
@@ -8230,13 +8277,19 @@
         <v>575</v>
       </c>
       <c r="B570" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C570" s="3" t="n">
+        <v>44968</v>
       </c>
       <c r="D570" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E570" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F570" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8244,13 +8297,10 @@
         <v>576</v>
       </c>
       <c r="B571" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D571" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E571" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F571" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8258,7 +8308,13 @@
         <v>577</v>
       </c>
       <c r="B572" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D572" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E572" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8282,8 +8338,11 @@
       <c r="B574" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D574" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F574" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8291,13 +8350,10 @@
         <v>580</v>
       </c>
       <c r="B575" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D575" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E575" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F575" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8305,13 +8361,10 @@
         <v>581</v>
       </c>
       <c r="B576" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D576" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E576" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F576" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8322,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="D577" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E577" s="0" t="n">
         <v>0</v>
@@ -8333,16 +8386,13 @@
         <v>583</v>
       </c>
       <c r="B578" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D578" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E578" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="F578" s="0" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8364,13 +8414,13 @@
         <v>585</v>
       </c>
       <c r="B580" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C580" s="2" t="n">
-        <v>44946</v>
-      </c>
-      <c r="F580" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
+      </c>
+      <c r="D580" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E580" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8380,19 +8430,19 @@
       <c r="B581" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F581" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
         <v>587</v>
       </c>
       <c r="B582" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F582" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D582" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E582" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8419,19 +8469,19 @@
       <c r="E584" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G584" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
         <v>590</v>
       </c>
       <c r="B585" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F585" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D585" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E585" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8439,10 +8489,13 @@
         <v>591</v>
       </c>
       <c r="B586" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F586" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D586" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E586" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8450,13 +8503,16 @@
         <v>592</v>
       </c>
       <c r="B587" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D587" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E587" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F587" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,8 +8536,11 @@
       <c r="B589" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C589" s="3" t="n">
+        <v>44946</v>
+      </c>
       <c r="F589" s="0" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8489,7 +8548,10 @@
         <v>595</v>
       </c>
       <c r="B590" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F590" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8497,13 +8559,10 @@
         <v>596</v>
       </c>
       <c r="B591" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D591" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E591" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F591" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8511,16 +8570,10 @@
         <v>597</v>
       </c>
       <c r="B592" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D592" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E592" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G592" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F592" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8534,6 +8587,9 @@
         <v>0</v>
       </c>
       <c r="E593" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G593" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8556,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="F595" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8564,10 +8620,13 @@
         <v>601</v>
       </c>
       <c r="B596" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F596" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D596" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E596" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8575,10 +8634,13 @@
         <v>602</v>
       </c>
       <c r="B597" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F597" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D597" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E597" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8586,13 +8648,10 @@
         <v>603</v>
       </c>
       <c r="B598" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D598" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E598" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F598" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8602,22 +8661,19 @@
       <c r="B599" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G599" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
         <v>605</v>
       </c>
       <c r="B600" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C600" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="F600" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D600" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E600" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8625,10 +8681,16 @@
         <v>606</v>
       </c>
       <c r="B601" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F601" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D601" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E601" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G601" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8642,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="E602" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8653,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="F603" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8663,12 +8725,6 @@
       <c r="B604" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D604" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E604" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="F604" s="0" t="n">
         <v>3</v>
       </c>
@@ -8678,13 +8734,10 @@
         <v>610</v>
       </c>
       <c r="B605" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D605" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E605" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F605" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8692,13 +8745,10 @@
         <v>611</v>
       </c>
       <c r="B606" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D606" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E606" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F606" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8709,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="D607" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E607" s="0" t="n">
         <v>0</v>
@@ -8722,19 +8772,22 @@
       <c r="B608" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G608" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
         <v>614</v>
       </c>
       <c r="B609" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D609" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E609" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C609" s="3" t="n">
+        <v>44967</v>
+      </c>
+      <c r="F609" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8745,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="F610" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8753,10 +8806,13 @@
         <v>616</v>
       </c>
       <c r="B611" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F611" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D611" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E611" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,13 +8820,10 @@
         <v>617</v>
       </c>
       <c r="B612" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D612" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E612" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F612" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8780,8 +8833,11 @@
       <c r="B613" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D613" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E613" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F613" s="0" t="n">
         <v>3</v>
@@ -8798,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="E614" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8820,16 +8876,13 @@
         <v>621</v>
       </c>
       <c r="B616" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D616" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E616" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="F616" s="0" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8837,10 +8890,7 @@
         <v>622</v>
       </c>
       <c r="B617" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F617" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8848,12 +8898,133 @@
         <v>623</v>
       </c>
       <c r="B618" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F618" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D618" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E618" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B619" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F619" s="0" t="n">
         <v>4</v>
       </c>
     </row>
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B620" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F620" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B621" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D621" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E621" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B622" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E622" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F622" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B623" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D623" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E623" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B624" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D624" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E624" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B625" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D625" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E625" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F625" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B626" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F626" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B627" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F627" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
